--- a/medicine/Médecine vétérinaire/Canulation_sanguine/Canulation_sanguine.xlsx
+++ b/medicine/Médecine vétérinaire/Canulation_sanguine/Canulation_sanguine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les canulations sanguines précliniques sont des canulations de vaisseaux veineux ou artériels effectuées sur des animaux de laboratoire préalablement anesthésiés.
 Elles consistent à percer la paroi d’un vaisseau à l’aide d’une aiguille afin d’y insérer un cathéter rempli d’une solution physiologique adaptée. Ce cathéter peut ensuite être maintenu à l’aide de ligatures pour faire un prélèvement sanguin ou une injection de molécules par exemple.
@@ -512,7 +524,9 @@
           <t>Étape de l'anesthésie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Avant de commencer toute canulation, il faut anesthésier l’animal pour éviter toute douleur lors de la manipulation. On réalise cette anesthésie par une injection intra-péritonéale (c'est-à-dire sur le flanc droit de l’animal légèrement au-dessus de l’axe des membres inférieurs) de chloral 7 %. Après avoir pesé l’animal, il faut injecter 0,5mL de chloral pour 100g de poids vif.
 De plus il faut prendre certaines précautions : vérifier que l’animal est bien endormi en faisant le test de la patte par exemple (forte pression de l’extrémité de la patte) pour voir s’il y a une réaction à la douleur.
@@ -546,17 +560,126 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les veines
-Les veines ont un rôle indispensable dans la circulation sanguine et ont pour objectif d’acheminer le sang veineux (chargés de déchets à évacuer) vers le cœur. Elles constituent également un réservoir sanguin car la majorité du volume de sang est contenu dans les veines (60 %).
+          <t>Les veines</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les veines ont un rôle indispensable dans la circulation sanguine et ont pour objectif d’acheminer le sang veineux (chargés de déchets à évacuer) vers le cœur. Elles constituent également un réservoir sanguin car la majorité du volume de sang est contenu dans les veines (60 %).
 Pour réaliser ces différents rôles les veines possèdent certaines caractéristiques physiologiques :
 Une paroi constituée de trois couches concentriques : l’intima, le media et l’adventice.
-Présence de valvules veineuses : qui font en sorte que le sang circule bien, de la périphérie vers le cœur, en empêchant tout reflux sanguin.
-But
-Les canulations veineuses ont pour but l’injection intraveineuse d’une substance chimique, comme une hormone afin d’étudier ses différents effets sur l’organisme ou un médicament ce qui permet d’avoir un effet rapide.
-Principe
-La canulation veineuse se pratique en différentes étapes :
-Exemple : canulation d'une veine jugulaire
-Les veines jugulaires internes, aussi appelées « veines du cou » dû au fait qu’elles traversent cette région du corps de part et d’autre de la trachée, permettent de ramener le sang veineux de la tête vers le cœur via la veine cave supérieure.
+Présence de valvules veineuses : qui font en sorte que le sang circule bien, de la périphérie vers le cœur, en empêchant tout reflux sanguin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Canulation_sanguine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Canulation_sanguine</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Canulations veineuses</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>But</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les canulations veineuses ont pour but l’injection intraveineuse d’une substance chimique, comme une hormone afin d’étudier ses différents effets sur l’organisme ou un médicament ce qui permet d’avoir un effet rapide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Canulation_sanguine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Canulation_sanguine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Canulations veineuses</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Principe</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La canulation veineuse se pratique en différentes étapes :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Canulation_sanguine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Canulation_sanguine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Canulations veineuses</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Exemple : canulation d'une veine jugulaire</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les veines jugulaires internes, aussi appelées « veines du cou » dû au fait qu’elles traversent cette région du corps de part et d’autre de la trachée, permettent de ramener le sang veineux de la tête vers le cœur via la veine cave supérieure.
 La canulation d’une veine jugulaire consiste à :
 L’ouverture du cou à l’aide d’un scalpel.
 La dilacération des différentes graisses et tissus sous cutanées avec les mains ou à l’aide de pinces courbes du côté droit de la trachée si on veut canuler la veine jugulaire droite et inversement pour la veine jugulaire gauche.
@@ -568,44 +691,153 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Canulation_sanguine</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine vétérinaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Canulation_sanguine</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Canulation_sanguine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Canulation_sanguine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Canulations artérielles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les artères
-Les artères ont aussi un rôle indispensable dans la circulation sanguine et ont pour objectif d’envoyer le sang artériel (oxygéné)  du ventricule gauche du cœur vers les autres tissus de l’organisme. Elles sont capables de se contracter ou de se détendre, grâce aux fibres musculaires lisses qui les entourent, pour s’adapter aux variations de pression causées par l’activité cardiaque.
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Les artères</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Les artères ont aussi un rôle indispensable dans la circulation sanguine et ont pour objectif d’envoyer le sang artériel (oxygéné)  du ventricule gauche du cœur vers les autres tissus de l’organisme. Elles sont capables de se contracter ou de se détendre, grâce aux fibres musculaires lisses qui les entourent, pour s’adapter aux variations de pression causées par l’activité cardiaque.
 Pour réaliser ces différents rôles les artères possèdent tout comme les veines certaines caractéristiques physiologiques :
 Une paroi constituée de trois couches concentriques : l’intima, le media et l’adventice.
 Remarque : paroi plus épaisse par rapport aux veines car la pression sanguine présente est plus élevée.
-Absence de valvules.
-But
-Les canulations artérielles permettent d’effectuer des prélèvements sanguins. Elles permettent aussi de mesurer la pression artérielle lorsque le cathéter est relié à un capteur de pression lui-même relié à un ordinateur par l’intermédiaire d’une interface adéquate.
-Principe
-La canulation artérielle se pratique en différentes étapes :
-Exemple : canulation d'une carotide
-Les artères carotides sont des artères situées de part et d’autre de la trachée et permettent d’amener le sang oxygéné du cœur vers le haut du corps.
+Absence de valvules.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Canulation_sanguine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Canulation_sanguine</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Canulations artérielles</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>But</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les canulations artérielles permettent d’effectuer des prélèvements sanguins. Elles permettent aussi de mesurer la pression artérielle lorsque le cathéter est relié à un capteur de pression lui-même relié à un ordinateur par l’intermédiaire d’une interface adéquate.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Canulation_sanguine</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Canulation_sanguine</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Canulations artérielles</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Principe</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La canulation artérielle se pratique en différentes étapes :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Canulation_sanguine</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Canulation_sanguine</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Canulations artérielles</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Exemple : canulation d'une carotide</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les artères carotides sont des artères situées de part et d’autre de la trachée et permettent d’amener le sang oxygéné du cœur vers le haut du corps.
 La canulation d’une carotide consiste à :
 L’ouverture du cou à l’aide d’un scalpel.
 La dilacération des différentes graisses et tissus sous cutanées avec les mains ou à l’aide de pinces courbes et ouverture du muscles qui protège la trachée. Puis rechercher la carotide à droite ou à gauche de la trachée qui est associée au nerf X (blanc) et l’isoler en l’a détachant du nerf à l’aide des pinces courbes en faisant attention de ne pas pincer l’artère pour ne pas l’abimer.
